--- a/graalwasm/graalwasm-micronaut-excelize/src/main/resources/output.xlsx
+++ b/graalwasm/graalwasm-micronaut-excelize/src/main/resources/output.xlsx
@@ -592,6 +592,72 @@
         <v>8</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>